--- a/Data/Processed/Angiosperms/missing_powo_ipni/Turneraceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Turneraceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8594,7 +8594,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -8858,7 +8858,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -9122,7 +9122,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9210,7 +9210,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -10354,7 +10354,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -10530,7 +10530,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -11234,7 +11234,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -11322,7 +11322,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -11663,7 +11663,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -11839,7 +11839,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -13148,7 +13148,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -13467,7 +13467,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -13555,7 +13555,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -13874,7 +13874,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -13962,7 +13962,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -14215,7 +14215,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -14391,7 +14391,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -14567,7 +14567,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15535,7 +15535,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -15678,7 +15678,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -15766,7 +15766,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -15854,7 +15854,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -15942,7 +15942,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -16030,7 +16030,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -16118,7 +16118,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -16404,7 +16404,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -16492,7 +16492,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -16580,7 +16580,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -16756,7 +16756,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -16844,7 +16844,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -17130,7 +17130,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -17218,7 +17218,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -17614,7 +17614,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -17922,7 +17922,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -18010,7 +18010,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -18186,7 +18186,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -18274,7 +18274,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -18362,7 +18362,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -18450,7 +18450,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -18626,7 +18626,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -18714,7 +18714,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -18802,7 +18802,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -18945,7 +18945,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -19033,7 +19033,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -19231,7 +19231,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -19484,7 +19484,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -19715,7 +19715,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -19803,7 +19803,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -19891,7 +19891,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -20749,7 +20749,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -21475,7 +21475,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -21563,7 +21563,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -21651,7 +21651,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -21794,7 +21794,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -22267,7 +22267,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -22575,7 +22575,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -22773,7 +22773,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -22861,7 +22861,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -22949,7 +22949,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -23092,7 +23092,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -23180,7 +23180,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -23268,7 +23268,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -23356,7 +23356,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -23444,7 +23444,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -23642,7 +23642,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -24225,7 +24225,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -24566,7 +24566,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -25314,7 +25314,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -25402,7 +25402,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -26095,7 +26095,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -26183,7 +26183,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -26271,7 +26271,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -26359,7 +26359,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -26502,7 +26502,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -26590,7 +26590,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -26898,7 +26898,7 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -26986,7 +26986,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -27074,7 +27074,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -27162,7 +27162,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -27338,7 +27338,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -27536,7 +27536,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -27899,7 +27899,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -28097,7 +28097,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -28185,7 +28185,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -28328,7 +28328,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -28526,7 +28526,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -28614,7 +28614,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -28702,7 +28702,7 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -28900,7 +28900,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -29208,7 +29208,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -29351,7 +29351,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -29439,7 +29439,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -29527,7 +29527,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -29615,7 +29615,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -29703,7 +29703,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -29791,7 +29791,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -29989,7 +29989,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -30132,7 +30132,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -30275,7 +30275,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -30363,7 +30363,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -30451,7 +30451,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -30649,7 +30649,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -30792,7 +30792,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -30880,7 +30880,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -31518,7 +31518,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -31606,7 +31606,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -32189,7 +32189,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -32277,7 +32277,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -33685,7 +33685,7 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -35918,7 +35918,7 @@
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -36336,7 +36336,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
@@ -36346,7 +36346,7 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 311. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 311. 1909</t>
         </is>
       </c>
       <c r="J550" t="b">
@@ -36414,7 +36414,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H551" t="inlineStr">
@@ -36492,7 +36492,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H552" t="inlineStr">
@@ -36502,7 +36502,7 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 56(Mém. 3d): 312. 1909 </t>
+          <t>Bull. Soc. Bot. France 56(Mém. 3d): 312. 1909</t>
         </is>
       </c>
       <c r="J552" t="b">
@@ -36570,7 +36570,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
@@ -36580,7 +36580,7 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bonplandia (Corrientes) 7: 94, fig. 9. 1993 </t>
+          <t>Bonplandia (Corrientes) 7: 94, fig. 9. 1993</t>
         </is>
       </c>
       <c r="J553" t="b">
